--- a/Data test/Invoice_Output.xlsx
+++ b/Data test/Invoice_Output.xlsx
@@ -47,14 +47,13 @@
     <sheet name="Sea Store " sheetId="39" state="visible" r:id="rId39"/>
     <sheet name="Sezar Cosmetic " sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="Shano Beauty" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Tecno" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Tissot Co." sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Top Cars" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Watches House" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Xazan Handmade " sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Zang Phone " sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Zaragoza" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Zenbil International" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Tissot Co." sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Top Cars" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Watches House" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Xazan Handmade " sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Zang Phone " sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Zaragoza" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Zenbil International" sheetId="48" state="visible" r:id="rId48"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -210,7 +209,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -246,6 +245,11 @@
         <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -277,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -458,22 +462,10 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -510,6 +502,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1035,30 +1031,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -1066,28 +1062,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -1392,95 +1388,95 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Babaria Roll On Deodorant For Sensitive Skin 50ml</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>5000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>750</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>4250</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Ds Revita Hair Density Stimulating Shampoo For Hair Loss 205ml</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>55000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>8250</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>46750</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>2 X O.B. Pro Comfort Super Plus Tampons 16 Pcs</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>18000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>2700</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>15300</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t>1 X CeraVe Hydrating Facial Cleanser For Normal And Dry Skin 473ml</t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>37000</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>5550</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>31450</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="13" t="n"/>
-      <c r="B24" s="72" t="n"/>
-      <c r="C24" s="73" t="n"/>
-      <c r="D24" s="74" t="n"/>
-      <c r="E24" s="75" t="n"/>
-      <c r="F24" s="76" t="n"/>
-      <c r="G24" s="77" t="n"/>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="21" t="n"/>
+      <c r="D24" s="26" t="n"/>
+      <c r="E24" s="22" t="n"/>
+      <c r="F24" s="72" t="n"/>
+      <c r="G24" s="73" t="n"/>
       <c r="H24" s="13" t="n"/>
     </row>
     <row r="25" s="40">
       <c r="A25" s="65" t="n"/>
-      <c r="B25" s="78" t="inlineStr">
+      <c r="B25" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C25" s="79" t="n"/>
-      <c r="D25" s="94" t="n"/>
-      <c r="E25" s="94" t="n"/>
-      <c r="F25" s="81" t="inlineStr">
+      <c r="C25" s="75" t="n"/>
+      <c r="D25" s="92" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="78">
         <f>SUM(G19:G23)</f>
         <v/>
       </c>
@@ -1488,28 +1484,28 @@
     </row>
     <row r="26">
       <c r="A26" s="65" t="n"/>
-      <c r="B26" s="83" t="n"/>
-      <c r="C26" s="84" t="n"/>
-      <c r="D26" s="80" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="85" t="inlineStr">
+      <c r="B26" s="79" t="n"/>
+      <c r="C26" s="80" t="n"/>
+      <c r="D26" s="76" t="n"/>
+      <c r="E26" s="76" t="n"/>
+      <c r="F26" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G26" s="86" t="n">
+      <c r="G26" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="65" t="n"/>
     </row>
     <row r="27" s="40">
       <c r="A27" s="33" t="n"/>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="88" t="n"/>
-      <c r="D27" s="88" t="n"/>
-      <c r="E27" s="89" t="n"/>
-      <c r="F27" s="90" t="n"/>
-      <c r="G27" s="91">
+      <c r="B27" s="83" t="n"/>
+      <c r="C27" s="84" t="n"/>
+      <c r="D27" s="84" t="n"/>
+      <c r="E27" s="85" t="n"/>
+      <c r="F27" s="86" t="n"/>
+      <c r="G27" s="87">
         <f>G25</f>
         <v/>
       </c>
@@ -1818,30 +1814,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -1849,28 +1845,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -2176,30 +2172,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -2207,28 +2203,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -2533,79 +2529,79 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Joyroom Rotatable Foldable Magnetic Phone Ring Holder JR-ZS420</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>16200</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>1944</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>14256</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Oraimo Smart Mouse (OF-M10) - Wireless</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>10800</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>1296</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>9504</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Anker Screen Protector 2Pcs Clear 8K Ultra High Transparency For IPhone 16 Pro Max </t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>30600</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>3672</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>26928</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="13" t="n"/>
-      <c r="B23" s="72" t="n"/>
-      <c r="C23" s="73" t="n"/>
-      <c r="D23" s="74" t="n"/>
-      <c r="E23" s="75" t="n"/>
-      <c r="F23" s="76" t="n"/>
-      <c r="G23" s="77" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="26" t="n"/>
+      <c r="E23" s="22" t="n"/>
+      <c r="F23" s="72" t="n"/>
+      <c r="G23" s="73" t="n"/>
       <c r="H23" s="13" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="65" t="n"/>
-      <c r="B24" s="78" t="inlineStr">
+      <c r="B24" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C24" s="79" t="n"/>
-      <c r="D24" s="94" t="n"/>
-      <c r="E24" s="94" t="n"/>
-      <c r="F24" s="81" t="inlineStr">
+      <c r="C24" s="75" t="n"/>
+      <c r="D24" s="92" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="78">
         <f>SUM(G19:G22)</f>
         <v/>
       </c>
@@ -2613,28 +2609,28 @@
     </row>
     <row r="25">
       <c r="A25" s="65" t="n"/>
-      <c r="B25" s="83" t="n"/>
-      <c r="C25" s="84" t="n"/>
-      <c r="D25" s="80" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="85" t="inlineStr">
+      <c r="B25" s="79" t="n"/>
+      <c r="C25" s="80" t="n"/>
+      <c r="D25" s="76" t="n"/>
+      <c r="E25" s="76" t="n"/>
+      <c r="F25" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G25" s="86" t="n">
+      <c r="G25" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="65" t="n"/>
     </row>
     <row r="26" s="40">
       <c r="A26" s="33" t="n"/>
-      <c r="B26" s="87" t="n"/>
-      <c r="C26" s="88" t="n"/>
-      <c r="D26" s="88" t="n"/>
-      <c r="E26" s="89" t="n"/>
-      <c r="F26" s="90" t="n"/>
-      <c r="G26" s="91">
+      <c r="B26" s="83" t="n"/>
+      <c r="C26" s="84" t="n"/>
+      <c r="D26" s="84" t="n"/>
+      <c r="E26" s="85" t="n"/>
+      <c r="F26" s="86" t="n"/>
+      <c r="G26" s="87">
         <f>G24</f>
         <v/>
       </c>
@@ -2942,127 +2938,127 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">3 X Eyfel Table Perfume Tropical Forest, 120 ml  </t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>15000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>3000</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve">5 X Eyfel Table Perfume Cool Water 120ml </t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>25000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>5000</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">3 X Eyfel Table Perfume Seaweed 120ml  </t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>15000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>3000</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve">2 X Eyfel Table Perfume Cool Water 120ml </t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>10000</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>2000</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="40">
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">3 X Eyfel Table Perfume Ocean 120 ml  </t>
         </is>
       </c>
-      <c r="E24" s="93" t="n">
+      <c r="E24" s="89" t="n">
         <v>15000</v>
       </c>
-      <c r="F24" s="93" t="n">
+      <c r="F24" s="89" t="n">
         <v>3000</v>
       </c>
-      <c r="G24" s="93" t="n">
+      <c r="G24" s="89" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="40">
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Eyfel Table Perfume Cool Water 120ml </t>
         </is>
       </c>
-      <c r="E25" s="93" t="n">
+      <c r="E25" s="91" t="n">
         <v>5000</v>
       </c>
-      <c r="F25" s="93" t="n">
+      <c r="F25" s="91" t="n">
         <v>1000</v>
       </c>
-      <c r="G25" s="93" t="n">
+      <c r="G25" s="91" t="n">
         <v>4000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="n"/>
-      <c r="B26" s="72" t="n"/>
-      <c r="C26" s="73" t="n"/>
-      <c r="D26" s="74" t="n"/>
-      <c r="E26" s="75" t="n"/>
-      <c r="F26" s="76" t="n"/>
-      <c r="G26" s="77" t="n"/>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="22" t="n"/>
+      <c r="F26" s="72" t="n"/>
+      <c r="G26" s="73" t="n"/>
       <c r="H26" s="13" t="n"/>
     </row>
     <row r="27" s="40">
       <c r="A27" s="65" t="n"/>
-      <c r="B27" s="78" t="inlineStr">
+      <c r="B27" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C27" s="79" t="n"/>
-      <c r="D27" s="94" t="n"/>
-      <c r="E27" s="94" t="n"/>
-      <c r="F27" s="81" t="inlineStr">
+      <c r="C27" s="75" t="n"/>
+      <c r="D27" s="92" t="n"/>
+      <c r="E27" s="92" t="n"/>
+      <c r="F27" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="78">
         <f>SUM(G19:G25)</f>
         <v/>
       </c>
@@ -3070,28 +3066,28 @@
     </row>
     <row r="28">
       <c r="A28" s="65" t="n"/>
-      <c r="B28" s="83" t="n"/>
-      <c r="C28" s="84" t="n"/>
-      <c r="D28" s="80" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="85" t="inlineStr">
+      <c r="B28" s="79" t="n"/>
+      <c r="C28" s="80" t="n"/>
+      <c r="D28" s="76" t="n"/>
+      <c r="E28" s="76" t="n"/>
+      <c r="F28" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G28" s="86" t="n">
+      <c r="G28" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="65" t="n"/>
     </row>
     <row r="29" s="40">
       <c r="A29" s="33" t="n"/>
-      <c r="B29" s="87" t="n"/>
-      <c r="C29" s="88" t="n"/>
-      <c r="D29" s="88" t="n"/>
-      <c r="E29" s="89" t="n"/>
-      <c r="F29" s="90" t="n"/>
-      <c r="G29" s="91">
+      <c r="B29" s="83" t="n"/>
+      <c r="C29" s="84" t="n"/>
+      <c r="D29" s="84" t="n"/>
+      <c r="E29" s="85" t="n"/>
+      <c r="F29" s="86" t="n"/>
+      <c r="G29" s="87">
         <f>G27</f>
         <v/>
       </c>
@@ -3401,47 +3397,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Flormar Make-Up Fix Spray</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>8000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>3600</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>4400</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -3449,28 +3445,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -3778,30 +3774,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -3809,28 +3805,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -4135,111 +4131,111 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Dogrular 3 Tier Bathroom Corner Shelf Black </t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>12500</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>875</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>11625</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Alas Door Floor Mat</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>6750</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>472</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>6278</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X A Form Comfort Cleaning Set Mixed Blue</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>4000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>280</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>3720</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t>1 X Oster Cotton Blanket 180x200cm</t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>19750</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>1382</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>18368</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="40">
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="88" t="inlineStr">
         <is>
           <t>1 X Alea Cotton Fitted Sheet Cream 200X200Cm</t>
         </is>
       </c>
-      <c r="E24" s="93" t="n">
+      <c r="E24" s="89" t="n">
         <v>16750</v>
       </c>
-      <c r="F24" s="93" t="n">
+      <c r="F24" s="89" t="n">
         <v>1172</v>
       </c>
-      <c r="G24" s="93" t="n">
+      <c r="G24" s="89" t="n">
         <v>15578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="n"/>
-      <c r="B25" s="72" t="n"/>
-      <c r="C25" s="73" t="n"/>
-      <c r="D25" s="74" t="n"/>
-      <c r="E25" s="75" t="n"/>
-      <c r="F25" s="76" t="n"/>
-      <c r="G25" s="77" t="n"/>
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="21" t="n"/>
+      <c r="D25" s="26" t="n"/>
+      <c r="E25" s="22" t="n"/>
+      <c r="F25" s="72" t="n"/>
+      <c r="G25" s="73" t="n"/>
       <c r="H25" s="13" t="n"/>
     </row>
     <row r="26" s="40">
       <c r="A26" s="65" t="n"/>
-      <c r="B26" s="78" t="inlineStr">
+      <c r="B26" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C26" s="79" t="n"/>
-      <c r="D26" s="94" t="n"/>
-      <c r="E26" s="94" t="n"/>
-      <c r="F26" s="81" t="inlineStr">
+      <c r="C26" s="75" t="n"/>
+      <c r="D26" s="92" t="n"/>
+      <c r="E26" s="92" t="n"/>
+      <c r="F26" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="78">
         <f>SUM(G19:G24)</f>
         <v/>
       </c>
@@ -4247,28 +4243,28 @@
     </row>
     <row r="27">
       <c r="A27" s="65" t="n"/>
-      <c r="B27" s="83" t="n"/>
-      <c r="C27" s="84" t="n"/>
-      <c r="D27" s="80" t="n"/>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="85" t="inlineStr">
+      <c r="B27" s="79" t="n"/>
+      <c r="C27" s="80" t="n"/>
+      <c r="D27" s="76" t="n"/>
+      <c r="E27" s="76" t="n"/>
+      <c r="F27" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G27" s="86" t="n">
+      <c r="G27" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="65" t="n"/>
     </row>
     <row r="28" s="40">
       <c r="A28" s="33" t="n"/>
-      <c r="B28" s="87" t="n"/>
-      <c r="C28" s="88" t="n"/>
-      <c r="D28" s="88" t="n"/>
-      <c r="E28" s="89" t="n"/>
-      <c r="F28" s="90" t="n"/>
-      <c r="G28" s="91">
+      <c r="B28" s="83" t="n"/>
+      <c r="C28" s="84" t="n"/>
+      <c r="D28" s="84" t="n"/>
+      <c r="E28" s="85" t="n"/>
+      <c r="F28" s="86" t="n"/>
+      <c r="G28" s="87">
         <f>G26</f>
         <v/>
       </c>
@@ -4577,47 +4573,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Mixed Warm Color Flower Bouquet</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>40000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>8000</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>32000</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -4625,28 +4621,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -4953,127 +4949,127 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>3 X INGCO  USB Type-C to Type-C Cable 1m IUCC02</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>3000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>600</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>2400</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X INGCO  Mini Hacksaw MHHF1505</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>2000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>400</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X INGCO  Plastic Hand Scalpel with Internal Storage for 4 Blades HKNS16218</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>1250</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>250</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t>1 X INGCO  10pcs Blades Set HKNSB181</t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>750</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>150</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="40">
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="88" t="inlineStr">
         <is>
           <t>1 X INGCO Cutting Knife HMPS0112</t>
         </is>
       </c>
-      <c r="E24" s="93" t="n">
+      <c r="E24" s="89" t="n">
         <v>3000</v>
       </c>
-      <c r="F24" s="93" t="n">
+      <c r="F24" s="89" t="n">
         <v>600</v>
       </c>
-      <c r="G24" s="93" t="n">
+      <c r="G24" s="89" t="n">
         <v>2400</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" s="40">
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="90" t="inlineStr">
         <is>
           <t>1 X INGCO  200mm Plastic Handle Blade Straight HPK82101</t>
         </is>
       </c>
-      <c r="E25" s="93" t="n">
+      <c r="E25" s="91" t="n">
         <v>2750</v>
       </c>
-      <c r="F25" s="93" t="n">
+      <c r="F25" s="91" t="n">
         <v>550</v>
       </c>
-      <c r="G25" s="93" t="n">
+      <c r="G25" s="91" t="n">
         <v>2200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="n"/>
-      <c r="B26" s="72" t="n"/>
-      <c r="C26" s="73" t="n"/>
-      <c r="D26" s="74" t="n"/>
-      <c r="E26" s="75" t="n"/>
-      <c r="F26" s="76" t="n"/>
-      <c r="G26" s="77" t="n"/>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="22" t="n"/>
+      <c r="F26" s="72" t="n"/>
+      <c r="G26" s="73" t="n"/>
       <c r="H26" s="13" t="n"/>
     </row>
     <row r="27" s="40">
       <c r="A27" s="65" t="n"/>
-      <c r="B27" s="78" t="inlineStr">
+      <c r="B27" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C27" s="79" t="n"/>
-      <c r="D27" s="94" t="n"/>
-      <c r="E27" s="94" t="n"/>
-      <c r="F27" s="81" t="inlineStr">
+      <c r="C27" s="75" t="n"/>
+      <c r="D27" s="92" t="n"/>
+      <c r="E27" s="92" t="n"/>
+      <c r="F27" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="78">
         <f>SUM(G19:G25)</f>
         <v/>
       </c>
@@ -5081,28 +5077,28 @@
     </row>
     <row r="28">
       <c r="A28" s="65" t="n"/>
-      <c r="B28" s="83" t="n"/>
-      <c r="C28" s="84" t="n"/>
-      <c r="D28" s="80" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="85" t="inlineStr">
+      <c r="B28" s="79" t="n"/>
+      <c r="C28" s="80" t="n"/>
+      <c r="D28" s="76" t="n"/>
+      <c r="E28" s="76" t="n"/>
+      <c r="F28" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G28" s="86" t="n">
+      <c r="G28" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="65" t="n"/>
     </row>
     <row r="29" s="40">
       <c r="A29" s="33" t="n"/>
-      <c r="B29" s="87" t="n"/>
-      <c r="C29" s="88" t="n"/>
-      <c r="D29" s="88" t="n"/>
-      <c r="E29" s="89" t="n"/>
-      <c r="F29" s="90" t="n"/>
-      <c r="G29" s="91">
+      <c r="B29" s="83" t="n"/>
+      <c r="C29" s="84" t="n"/>
+      <c r="D29" s="84" t="n"/>
+      <c r="E29" s="85" t="n"/>
+      <c r="F29" s="86" t="n"/>
+      <c r="G29" s="87">
         <f>G27</f>
         <v/>
       </c>
@@ -5413,30 +5409,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -5444,28 +5440,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -5529,7 +5525,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5770,110 +5766,94 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Redmi Buds 6 Play Blue 59438</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>15000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>13000</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
-        <is>
-          <t>1 X Redmi 13 Pearl Pink 8GB RAM 256GB ROM 56054</t>
-        </is>
-      </c>
-      <c r="E21" s="93" t="n">
-        <v>173000</v>
-      </c>
-      <c r="F21" s="93" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="93" t="n">
-        <v>163000</v>
-      </c>
+    <row r="21" ht="24" customHeight="1" s="40">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
+      <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="72" t="n"/>
-      <c r="C22" s="73" t="n"/>
-      <c r="D22" s="74" t="n"/>
-      <c r="E22" s="75" t="n"/>
-      <c r="F22" s="76" t="n"/>
-      <c r="G22" s="77" t="n"/>
-      <c r="H22" s="13" t="n"/>
+      <c r="A22" s="65" t="n"/>
+      <c r="B22" s="74" t="inlineStr">
+        <is>
+          <t>Signature:</t>
+        </is>
+      </c>
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="G22" s="78">
+        <f>SUM(G19:G20)</f>
+        <v/>
+      </c>
+      <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="78" t="inlineStr">
-        <is>
-          <t>Signature:</t>
-        </is>
-      </c>
-      <c r="C23" s="79" t="n"/>
-      <c r="D23" s="94" t="n"/>
-      <c r="E23" s="94" t="n"/>
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
       <c r="F23" s="81" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="G23" s="93">
-        <f>SUM(G19:G21)</f>
-        <v/>
+          <t>Adjustments</t>
+        </is>
+      </c>
+      <c r="G23" s="82" t="n">
+        <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
-      <c r="A24" s="65" t="n"/>
+      <c r="A24" s="33" t="n"/>
       <c r="B24" s="83" t="n"/>
       <c r="C24" s="84" t="n"/>
-      <c r="D24" s="80" t="n"/>
-      <c r="E24" s="80" t="n"/>
-      <c r="F24" s="85" t="inlineStr">
-        <is>
-          <t>Adjustments</t>
-        </is>
-      </c>
-      <c r="G24" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="65" t="n"/>
-    </row>
-    <row r="25" s="40">
-      <c r="A25" s="33" t="n"/>
-      <c r="B25" s="87" t="n"/>
-      <c r="C25" s="88" t="n"/>
-      <c r="D25" s="88" t="n"/>
-      <c r="E25" s="89" t="n"/>
-      <c r="F25" s="90" t="n"/>
-      <c r="G25" s="91">
-        <f>G23</f>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
+        <f>G22</f>
         <v/>
       </c>
-      <c r="H25" s="35" t="inlineStr">
+      <c r="H24" s="35" t="inlineStr">
         <is>
           <t>IQD</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="42" t="n"/>
-      <c r="B26" s="37" t="n"/>
-      <c r="C26" s="42" t="n"/>
-      <c r="D26" s="42" t="n"/>
-      <c r="E26" s="19" t="n"/>
-      <c r="F26" s="19" t="n"/>
-      <c r="G26" s="19" t="n"/>
-      <c r="H26" s="42" t="n"/>
+    <row r="25">
+      <c r="A25" s="42" t="n"/>
+      <c r="B25" s="37" t="n"/>
+      <c r="C25" s="42" t="n"/>
+      <c r="D25" s="42" t="n"/>
+      <c r="E25" s="19" t="n"/>
+      <c r="F25" s="19" t="n"/>
+      <c r="G25" s="19" t="n"/>
+      <c r="H25" s="42" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5882,7 +5862,7 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B11:C11"/>
@@ -5895,6 +5875,7 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B9:C9"/>
@@ -5907,7 +5888,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6163,30 +6143,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -6194,28 +6174,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -6520,47 +6500,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Kenwood Juice Extractor JEP02 </t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>99250</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>9925</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>89325</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -6568,28 +6548,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -6897,30 +6877,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -6928,28 +6908,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -7255,30 +7235,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -7286,28 +7266,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -7613,30 +7593,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -7644,28 +7624,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -7971,30 +7951,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -8002,28 +7982,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -8087,7 +8067,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8327,143 +8307,127 @@
       </c>
       <c r="H19" s="13" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
-        <is>
-          <t>1 X M Center Cable USB to Lighting 2m i18</t>
-        </is>
-      </c>
-      <c r="E20" s="93" t="n">
-        <v>7000</v>
-      </c>
-      <c r="F20" s="93" t="n">
-        <v>560</v>
-      </c>
-      <c r="G20" s="93" t="n">
-        <v>6440</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+    <row r="20" ht="30" customHeight="1" s="40">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X M Center 30W Lightning Charger with Cable</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>14000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>1120</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>12880</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="40">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Apple AirPods 3rd Generation</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>165000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>16500</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>148500</v>
       </c>
     </row>
+    <row r="22" ht="30" customHeight="1" s="40">
+      <c r="B22" s="88" t="inlineStr">
+        <is>
+          <t>1 X M Center 30W Turbo Fast USB-C Charger with Cable</t>
+        </is>
+      </c>
+      <c r="E22" s="89" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F22" s="89" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G22" s="89" t="n">
+        <v>12880</v>
+      </c>
+    </row>
     <row r="23" ht="30" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
-        <is>
-          <t>1 X M Center 30W Turbo Fast USB-C Charger with Cable</t>
-        </is>
-      </c>
-      <c r="E23" s="93" t="n">
-        <v>14000</v>
-      </c>
-      <c r="F23" s="93" t="n">
-        <v>1120</v>
-      </c>
-      <c r="G23" s="93" t="n">
-        <v>12880</v>
-      </c>
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="26" t="n"/>
+      <c r="E23" s="22" t="n"/>
+      <c r="F23" s="72" t="n"/>
+      <c r="G23" s="73" t="n"/>
+      <c r="H23" s="13" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="72" t="n"/>
-      <c r="C24" s="73" t="n"/>
-      <c r="D24" s="74" t="n"/>
-      <c r="E24" s="75" t="n"/>
-      <c r="F24" s="76" t="n"/>
-      <c r="G24" s="77" t="n"/>
-      <c r="H24" s="13" t="n"/>
-    </row>
-    <row r="25" s="40">
+      <c r="A24" s="65" t="n"/>
+      <c r="B24" s="74" t="inlineStr">
+        <is>
+          <t>Signature:</t>
+        </is>
+      </c>
+      <c r="C24" s="75" t="n"/>
+      <c r="D24" s="92" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="77" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="G24" s="78">
+        <f>SUM(G19:G22)</f>
+        <v/>
+      </c>
+      <c r="H24" s="65" t="n"/>
+    </row>
+    <row r="25">
       <c r="A25" s="65" t="n"/>
-      <c r="B25" s="78" t="inlineStr">
-        <is>
-          <t>Signature:</t>
-        </is>
-      </c>
-      <c r="C25" s="79" t="n"/>
-      <c r="D25" s="94" t="n"/>
-      <c r="E25" s="94" t="n"/>
+      <c r="B25" s="79" t="n"/>
+      <c r="C25" s="80" t="n"/>
+      <c r="D25" s="76" t="n"/>
+      <c r="E25" s="76" t="n"/>
       <c r="F25" s="81" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="G25" s="82">
-        <f>SUM(G19:G23)</f>
-        <v/>
+          <t>Adjustments</t>
+        </is>
+      </c>
+      <c r="G25" s="82" t="n">
+        <v>0</v>
       </c>
       <c r="H25" s="65" t="n"/>
     </row>
-    <row r="26">
-      <c r="A26" s="65" t="n"/>
+    <row r="26" s="40">
+      <c r="A26" s="33" t="n"/>
       <c r="B26" s="83" t="n"/>
       <c r="C26" s="84" t="n"/>
-      <c r="D26" s="80" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="85" t="inlineStr">
-        <is>
-          <t>Adjustments</t>
-        </is>
-      </c>
-      <c r="G26" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="65" t="n"/>
-    </row>
-    <row r="27" s="40">
-      <c r="A27" s="33" t="n"/>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="88" t="n"/>
-      <c r="D27" s="88" t="n"/>
-      <c r="E27" s="89" t="n"/>
-      <c r="F27" s="90" t="n"/>
-      <c r="G27" s="91">
-        <f>G25</f>
+      <c r="D26" s="84" t="n"/>
+      <c r="E26" s="85" t="n"/>
+      <c r="F26" s="86" t="n"/>
+      <c r="G26" s="87">
+        <f>G24</f>
         <v/>
       </c>
-      <c r="H27" s="35" t="inlineStr">
+      <c r="H26" s="35" t="inlineStr">
         <is>
           <t>IQD</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="42" t="n"/>
-      <c r="B28" s="37" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
-      <c r="E28" s="19" t="n"/>
-      <c r="F28" s="19" t="n"/>
-      <c r="G28" s="19" t="n"/>
-      <c r="H28" s="42" t="n"/>
+    <row r="27">
+      <c r="A27" s="42" t="n"/>
+      <c r="B27" s="37" t="n"/>
+      <c r="C27" s="42" t="n"/>
+      <c r="D27" s="42" t="n"/>
+      <c r="E27" s="19" t="n"/>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="19" t="n"/>
+      <c r="H27" s="42" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -8472,7 +8436,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B11:C11"/>
@@ -8485,6 +8448,7 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B9:C9"/>
@@ -8512,7 +8476,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8738,118 +8702,102 @@
       <c r="A19" s="13" t="n"/>
       <c r="B19" s="70" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 X Vichy Intensive Anti Perspirant Treatment Roll On 48h 50ml </t>
+          <t>1 X La Roche Posay Anthelios Hydrating Sunscreen</t>
         </is>
       </c>
       <c r="E19" s="71" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="F19" s="71" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G19" s="71" t="n">
-        <v>18000</v>
+        <v>31500</v>
       </c>
       <c r="H19" s="13" t="n"/>
     </row>
-    <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
-        <is>
-          <t>1 X La Roche Posay Anthelios Hydrating Sunscreen</t>
-        </is>
-      </c>
-      <c r="E20" s="93" t="n">
-        <v>35000</v>
-      </c>
-      <c r="F20" s="93" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G20" s="93" t="n">
-        <v>31500</v>
-      </c>
+    <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
+      <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
-      <c r="H21" s="13" t="n"/>
+      <c r="A21" s="65" t="n"/>
+      <c r="B21" s="74" t="inlineStr">
+        <is>
+          <t>Signature:</t>
+        </is>
+      </c>
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="G21" s="78">
+        <f>SUM(G19:G19)</f>
+        <v/>
+      </c>
+      <c r="H21" s="65" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
-        <is>
-          <t>Signature:</t>
-        </is>
-      </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
       <c r="F22" s="81" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="G22" s="82">
-        <f>SUM(G19:G20)</f>
-        <v/>
+          <t>Adjustments</t>
+        </is>
+      </c>
+      <c r="G22" s="82" t="n">
+        <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
-      <c r="A23" s="65" t="n"/>
+      <c r="A23" s="33" t="n"/>
       <c r="B23" s="83" t="n"/>
       <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
-        <is>
-          <t>Adjustments</t>
-        </is>
-      </c>
-      <c r="G23" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="65" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
+        <f>G21</f>
+        <v/>
+      </c>
+      <c r="H23" s="35" t="inlineStr">
+        <is>
+          <t>IQD</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
-      <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
-        <f>G22</f>
-        <v/>
-      </c>
-      <c r="H24" s="35" t="inlineStr">
-        <is>
-          <t>IQD</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="42" t="n"/>
-      <c r="B25" s="37" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="42" t="n"/>
-      <c r="E25" s="19" t="n"/>
-      <c r="F25" s="19" t="n"/>
-      <c r="G25" s="19" t="n"/>
-      <c r="H25" s="42" t="n"/>
+      <c r="A24" s="42" t="n"/>
+      <c r="B24" s="37" t="n"/>
+      <c r="C24" s="42" t="n"/>
+      <c r="D24" s="42" t="n"/>
+      <c r="E24" s="19" t="n"/>
+      <c r="F24" s="19" t="n"/>
+      <c r="G24" s="19" t="n"/>
+      <c r="H24" s="42" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="29">
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B11:C11"/>
@@ -8857,12 +8805,10 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B9:C9"/>
@@ -9130,30 +9076,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -9161,28 +9107,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -9487,47 +9433,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Sauvage Dior Perfume Mixture For Men 25ml Copy</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>7000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>1400</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>5600</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -9535,28 +9481,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -9864,30 +9810,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -9895,28 +9841,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -10222,30 +10168,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -10253,28 +10199,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -10580,30 +10526,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -10611,28 +10557,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -10937,95 +10883,95 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Nour Younes Sleek Leave-In Treatment Spray</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>15000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>3000</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Nour Younes Hair Care Set</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>70000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>14000</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>56000</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X Nour Younes Organic Shampoo &amp; Conditioner 500ml</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>35000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>7000</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>28000</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t>1 X Nour Younes Sleek Leave-In Treatment Spray</t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>15000</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>3000</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>12000</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="13" t="n"/>
-      <c r="B24" s="72" t="n"/>
-      <c r="C24" s="73" t="n"/>
-      <c r="D24" s="74" t="n"/>
-      <c r="E24" s="75" t="n"/>
-      <c r="F24" s="76" t="n"/>
-      <c r="G24" s="77" t="n"/>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="21" t="n"/>
+      <c r="D24" s="26" t="n"/>
+      <c r="E24" s="22" t="n"/>
+      <c r="F24" s="72" t="n"/>
+      <c r="G24" s="73" t="n"/>
       <c r="H24" s="13" t="n"/>
     </row>
     <row r="25" s="40">
       <c r="A25" s="65" t="n"/>
-      <c r="B25" s="78" t="inlineStr">
+      <c r="B25" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C25" s="79" t="n"/>
-      <c r="D25" s="94" t="n"/>
-      <c r="E25" s="94" t="n"/>
-      <c r="F25" s="81" t="inlineStr">
+      <c r="C25" s="75" t="n"/>
+      <c r="D25" s="92" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="78">
         <f>SUM(G19:G23)</f>
         <v/>
       </c>
@@ -11033,28 +10979,28 @@
     </row>
     <row r="26">
       <c r="A26" s="65" t="n"/>
-      <c r="B26" s="83" t="n"/>
-      <c r="C26" s="84" t="n"/>
-      <c r="D26" s="80" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="85" t="inlineStr">
+      <c r="B26" s="79" t="n"/>
+      <c r="C26" s="80" t="n"/>
+      <c r="D26" s="76" t="n"/>
+      <c r="E26" s="76" t="n"/>
+      <c r="F26" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G26" s="86" t="n">
+      <c r="G26" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="65" t="n"/>
     </row>
     <row r="27" s="40">
       <c r="A27" s="33" t="n"/>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="88" t="n"/>
-      <c r="D27" s="88" t="n"/>
-      <c r="E27" s="89" t="n"/>
-      <c r="F27" s="90" t="n"/>
-      <c r="G27" s="91">
+      <c r="B27" s="83" t="n"/>
+      <c r="C27" s="84" t="n"/>
+      <c r="D27" s="84" t="n"/>
+      <c r="E27" s="85" t="n"/>
+      <c r="F27" s="86" t="n"/>
+      <c r="G27" s="87">
         <f>G25</f>
         <v/>
       </c>
@@ -11362,79 +11308,79 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X O.Two.O Ultra Bushy 5D Waterproof Mascara</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>6000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>900</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>5100</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X O.TWO.O High Pigment Blush Stick 02 Fervor</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>5400</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>810</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>4590</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X O.Two.O 2 in 1 High Pigmented Long Lasting Lipstick #09</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>6000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>900</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>5100</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="13" t="n"/>
-      <c r="B23" s="72" t="n"/>
-      <c r="C23" s="73" t="n"/>
-      <c r="D23" s="74" t="n"/>
-      <c r="E23" s="75" t="n"/>
-      <c r="F23" s="76" t="n"/>
-      <c r="G23" s="77" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="26" t="n"/>
+      <c r="E23" s="22" t="n"/>
+      <c r="F23" s="72" t="n"/>
+      <c r="G23" s="73" t="n"/>
       <c r="H23" s="13" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="65" t="n"/>
-      <c r="B24" s="78" t="inlineStr">
+      <c r="B24" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C24" s="79" t="n"/>
-      <c r="D24" s="94" t="n"/>
-      <c r="E24" s="94" t="n"/>
-      <c r="F24" s="81" t="inlineStr">
+      <c r="C24" s="75" t="n"/>
+      <c r="D24" s="92" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="78">
         <f>SUM(G19:G22)</f>
         <v/>
       </c>
@@ -11442,28 +11388,28 @@
     </row>
     <row r="25">
       <c r="A25" s="65" t="n"/>
-      <c r="B25" s="83" t="n"/>
-      <c r="C25" s="84" t="n"/>
-      <c r="D25" s="80" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="85" t="inlineStr">
+      <c r="B25" s="79" t="n"/>
+      <c r="C25" s="80" t="n"/>
+      <c r="D25" s="76" t="n"/>
+      <c r="E25" s="76" t="n"/>
+      <c r="F25" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G25" s="86" t="n">
+      <c r="G25" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="65" t="n"/>
     </row>
     <row r="26" s="40">
       <c r="A26" s="33" t="n"/>
-      <c r="B26" s="87" t="n"/>
-      <c r="C26" s="88" t="n"/>
-      <c r="D26" s="88" t="n"/>
-      <c r="E26" s="89" t="n"/>
-      <c r="F26" s="90" t="n"/>
-      <c r="G26" s="91">
+      <c r="B26" s="83" t="n"/>
+      <c r="C26" s="84" t="n"/>
+      <c r="D26" s="84" t="n"/>
+      <c r="E26" s="85" t="n"/>
+      <c r="F26" s="86" t="n"/>
+      <c r="G26" s="87">
         <f>G24</f>
         <v/>
       </c>
@@ -11771,623 +11717,623 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Mason Barcrat Rouge 504 Eau de Parfum For Women 60ml Master Copy</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Gucci Bloom Eau De Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>10000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>2000</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X Emporio Armani Stronger With You Intensely Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t>2 X Dior Sauvage Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>22000</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>4400</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>17600</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" s="40">
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="88" t="inlineStr">
         <is>
           <t>1 X Paco Rabanne One Million Eau De Toilette for Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E24" s="93" t="n">
+      <c r="E24" s="89" t="n">
         <v>12500</v>
       </c>
-      <c r="F24" s="93" t="n">
+      <c r="F24" s="89" t="n">
         <v>2500</v>
       </c>
-      <c r="G24" s="93" t="n">
+      <c r="G24" s="89" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" s="40">
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="90" t="inlineStr">
         <is>
           <t>1 X Chanel Coco Mademoiselle Eau de Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E25" s="93" t="n">
+      <c r="E25" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F25" s="93" t="n">
+      <c r="F25" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G25" s="93" t="n">
+      <c r="G25" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" s="40">
-      <c r="B26" s="92" t="inlineStr">
+      <c r="B26" s="88" t="inlineStr">
         <is>
           <t>1 X Dior Sauvage Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E26" s="93" t="n">
+      <c r="E26" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F26" s="93" t="n">
+      <c r="F26" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G26" s="93" t="n">
+      <c r="G26" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" s="40">
-      <c r="B27" s="92" t="inlineStr">
+      <c r="B27" s="90" t="inlineStr">
         <is>
           <t>1 X Yves Saint Laurent Libre Eau de Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E27" s="93" t="n">
+      <c r="E27" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F27" s="93" t="n">
+      <c r="F27" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G27" s="93" t="n">
+      <c r="G27" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" s="40">
-      <c r="B28" s="92" t="inlineStr">
+      <c r="B28" s="88" t="inlineStr">
         <is>
           <t>1 X Invictus  Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E28" s="93" t="n">
+      <c r="E28" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F28" s="93" t="n">
+      <c r="F28" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G28" s="93" t="n">
+      <c r="G28" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" s="40">
-      <c r="B29" s="92" t="inlineStr">
+      <c r="B29" s="90" t="inlineStr">
         <is>
           <t>1 X Emporio Armani Stronger With You Intensely Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E29" s="93" t="n">
+      <c r="E29" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F29" s="93" t="n">
+      <c r="F29" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G29" s="93" t="n">
+      <c r="G29" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" s="40">
-      <c r="B30" s="92" t="inlineStr">
+      <c r="B30" s="88" t="inlineStr">
         <is>
           <t>1 X Armani Privé Musc Shamal Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E30" s="93" t="n">
+      <c r="E30" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F30" s="93" t="n">
+      <c r="F30" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G30" s="93" t="n">
+      <c r="G30" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" s="40">
-      <c r="B31" s="92" t="inlineStr">
+      <c r="B31" s="90" t="inlineStr">
         <is>
           <t>1 X GIQ Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E31" s="93" t="n">
+      <c r="E31" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F31" s="93" t="n">
+      <c r="F31" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G31" s="93" t="n">
+      <c r="G31" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" s="40">
-      <c r="B32" s="92" t="inlineStr">
+      <c r="B32" s="88" t="inlineStr">
         <is>
           <t>1 X Dolce &amp; Gabbana The One Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E32" s="93" t="n">
+      <c r="E32" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F32" s="93" t="n">
+      <c r="F32" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G32" s="93" t="n">
+      <c r="G32" s="89" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" s="40">
-      <c r="B33" s="92" t="inlineStr">
+      <c r="B33" s="90" t="inlineStr">
         <is>
           <t>1 X Dior Sauvage Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E33" s="93" t="n">
+      <c r="E33" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F33" s="93" t="n">
+      <c r="F33" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G33" s="93" t="n">
+      <c r="G33" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" s="40">
-      <c r="B34" s="92" t="inlineStr">
+      <c r="B34" s="88" t="inlineStr">
         <is>
           <t>1 X Dolce &amp; Gabbana Intense Eau de Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E34" s="93" t="n">
+      <c r="E34" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F34" s="93" t="n">
+      <c r="F34" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G34" s="93" t="n">
+      <c r="G34" s="89" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" s="40">
-      <c r="B35" s="92" t="inlineStr">
+      <c r="B35" s="90" t="inlineStr">
         <is>
           <t>1 X Emporio Armani Stronger With You Eau de Toilette For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E35" s="93" t="n">
+      <c r="E35" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F35" s="93" t="n">
+      <c r="F35" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G35" s="93" t="n">
+      <c r="G35" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" s="40">
-      <c r="B36" s="92" t="inlineStr">
+      <c r="B36" s="88" t="inlineStr">
         <is>
           <t>1 X La Casona Black Imperial Eau De Toilette For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E36" s="93" t="n">
+      <c r="E36" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F36" s="93" t="n">
+      <c r="F36" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G36" s="93" t="n">
+      <c r="G36" s="89" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" s="40">
-      <c r="B37" s="92" t="inlineStr">
+      <c r="B37" s="90" t="inlineStr">
         <is>
           <t>1 X Armani Privé Musc Shamal Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E37" s="93" t="n">
+      <c r="E37" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F37" s="93" t="n">
+      <c r="F37" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G37" s="93" t="n">
+      <c r="G37" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" s="40">
-      <c r="B38" s="92" t="inlineStr">
+      <c r="B38" s="88" t="inlineStr">
         <is>
           <t>1 X Emporio Armani Stronger With You Intensely Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E38" s="93" t="n">
+      <c r="E38" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F38" s="93" t="n">
+      <c r="F38" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G38" s="93" t="n">
+      <c r="G38" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" s="40">
-      <c r="B39" s="92" t="inlineStr">
+      <c r="B39" s="90" t="inlineStr">
         <is>
           <t>1 X Pure X Eau de Toilette For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E39" s="93" t="n">
+      <c r="E39" s="91" t="n">
         <v>10000</v>
       </c>
-      <c r="F39" s="93" t="n">
+      <c r="F39" s="91" t="n">
         <v>2000</v>
       </c>
-      <c r="G39" s="93" t="n">
+      <c r="G39" s="91" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" s="40">
-      <c r="B40" s="92" t="inlineStr">
+      <c r="B40" s="88" t="inlineStr">
         <is>
           <t>1 X Yves Saint Laurent Libre Eau de Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E40" s="93" t="n">
+      <c r="E40" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F40" s="93" t="n">
+      <c r="F40" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G40" s="93" t="n">
+      <c r="G40" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" s="40">
-      <c r="B41" s="92" t="inlineStr">
+      <c r="B41" s="90" t="inlineStr">
         <is>
           <t>1 X Versace Crystal Noir Eau De Toilette For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E41" s="93" t="n">
+      <c r="E41" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F41" s="93" t="n">
+      <c r="F41" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G41" s="93" t="n">
+      <c r="G41" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" s="40">
-      <c r="B42" s="92" t="inlineStr">
+      <c r="B42" s="88" t="inlineStr">
         <is>
           <t>1 X Dior Sauvage Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E42" s="93" t="n">
+      <c r="E42" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F42" s="93" t="n">
+      <c r="F42" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G42" s="93" t="n">
+      <c r="G42" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" s="40">
-      <c r="B43" s="92" t="inlineStr">
+      <c r="B43" s="90" t="inlineStr">
         <is>
           <t>1 X Versace Bright Crystal Eau de Toilette For Women 90ml Master Copy</t>
         </is>
       </c>
-      <c r="E43" s="93" t="n">
+      <c r="E43" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F43" s="93" t="n">
+      <c r="F43" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G43" s="93" t="n">
+      <c r="G43" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" s="40">
-      <c r="B44" s="92" t="inlineStr">
+      <c r="B44" s="88" t="inlineStr">
         <is>
           <t>1 X Curvy Body III Eau de Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E44" s="93" t="n">
+      <c r="E44" s="89" t="n">
         <v>11500</v>
       </c>
-      <c r="F44" s="93" t="n">
+      <c r="F44" s="89" t="n">
         <v>2300</v>
       </c>
-      <c r="G44" s="93" t="n">
+      <c r="G44" s="89" t="n">
         <v>9200</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" s="40">
-      <c r="B45" s="92" t="inlineStr">
+      <c r="B45" s="90" t="inlineStr">
         <is>
           <t>1 X Bleu de Chanel Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E45" s="93" t="n">
+      <c r="E45" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F45" s="93" t="n">
+      <c r="F45" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G45" s="93" t="n">
+      <c r="G45" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" s="40">
-      <c r="B46" s="92" t="inlineStr">
+      <c r="B46" s="88" t="inlineStr">
         <is>
           <t>1 X Versace Eros Blue Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E46" s="93" t="n">
+      <c r="E46" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F46" s="93" t="n">
+      <c r="F46" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G46" s="93" t="n">
+      <c r="G46" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" s="40">
-      <c r="B47" s="92" t="inlineStr">
+      <c r="B47" s="90" t="inlineStr">
         <is>
           <t>1 X Black Touch Eau De Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E47" s="93" t="n">
+      <c r="E47" s="91" t="n">
         <v>10000</v>
       </c>
-      <c r="F47" s="93" t="n">
+      <c r="F47" s="91" t="n">
         <v>2000</v>
       </c>
-      <c r="G47" s="93" t="n">
+      <c r="G47" s="91" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" s="40">
-      <c r="B48" s="92" t="inlineStr">
+      <c r="B48" s="88" t="inlineStr">
         <is>
           <t>1 X Mason Barcrat Rouge 504 Eau de Parfum For Women 60ml Master Copy</t>
         </is>
       </c>
-      <c r="E48" s="93" t="n">
+      <c r="E48" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F48" s="93" t="n">
+      <c r="F48" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G48" s="93" t="n">
+      <c r="G48" s="89" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" s="40">
-      <c r="B49" s="92" t="inlineStr">
+      <c r="B49" s="90" t="inlineStr">
         <is>
           <t>1 X Dolce &amp; Gabbana Light Blue Eau Intense For Men Eau De Parfum 100ml Mastercopy</t>
         </is>
       </c>
-      <c r="E49" s="93" t="n">
+      <c r="E49" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F49" s="93" t="n">
+      <c r="F49" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G49" s="93" t="n">
+      <c r="G49" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" s="40">
-      <c r="B50" s="92" t="inlineStr">
+      <c r="B50" s="88" t="inlineStr">
         <is>
           <t>1 X Lancome Idole Eau De Parfum For Women 75ml Master Copy</t>
         </is>
       </c>
-      <c r="E50" s="93" t="n">
+      <c r="E50" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F50" s="93" t="n">
+      <c r="F50" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G50" s="93" t="n">
+      <c r="G50" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" s="40">
-      <c r="B51" s="92" t="inlineStr">
+      <c r="B51" s="90" t="inlineStr">
         <is>
           <t>1 X Dolce &amp; Gabbana The One Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E51" s="93" t="n">
+      <c r="E51" s="91" t="n">
         <v>10000</v>
       </c>
-      <c r="F51" s="93" t="n">
+      <c r="F51" s="91" t="n">
         <v>2000</v>
       </c>
-      <c r="G51" s="93" t="n">
+      <c r="G51" s="91" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" s="40">
-      <c r="B52" s="92" t="inlineStr">
+      <c r="B52" s="88" t="inlineStr">
         <is>
           <t>1 X Yara Eau De Parfum For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E52" s="93" t="n">
+      <c r="E52" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F52" s="93" t="n">
+      <c r="F52" s="89" t="n">
         <v>2000</v>
       </c>
-      <c r="G52" s="93" t="n">
+      <c r="G52" s="89" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" s="40">
-      <c r="B53" s="92" t="inlineStr">
+      <c r="B53" s="90" t="inlineStr">
         <is>
           <t>1 X Bleu de Chanel Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E53" s="93" t="n">
+      <c r="E53" s="91" t="n">
         <v>11000</v>
       </c>
-      <c r="F53" s="93" t="n">
+      <c r="F53" s="91" t="n">
         <v>2200</v>
       </c>
-      <c r="G53" s="93" t="n">
+      <c r="G53" s="91" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" s="40">
-      <c r="B54" s="92" t="inlineStr">
+      <c r="B54" s="88" t="inlineStr">
         <is>
           <t>1 X Zera Black Amber Eau De Toilette For Women 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E54" s="93" t="n">
+      <c r="E54" s="89" t="n">
         <v>6000</v>
       </c>
-      <c r="F54" s="93" t="n">
+      <c r="F54" s="89" t="n">
         <v>1200</v>
       </c>
-      <c r="G54" s="93" t="n">
+      <c r="G54" s="89" t="n">
         <v>4800</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" s="40">
-      <c r="B55" s="92" t="inlineStr">
+      <c r="B55" s="90" t="inlineStr">
         <is>
           <t>1 X Paco Rabanne Invictus Eau De Toilette For Men 100ml+ 20ml Master Copy</t>
         </is>
       </c>
-      <c r="E55" s="93" t="n">
+      <c r="E55" s="91" t="n">
         <v>12500</v>
       </c>
-      <c r="F55" s="93" t="n">
+      <c r="F55" s="91" t="n">
         <v>2500</v>
       </c>
-      <c r="G55" s="93" t="n">
+      <c r="G55" s="91" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" s="40">
-      <c r="B56" s="92" t="inlineStr">
+      <c r="B56" s="88" t="inlineStr">
         <is>
           <t>1 X Emporio Armani Stronger With You Intensely Eau de Parfum For Men 100ml Master Copy</t>
         </is>
       </c>
-      <c r="E56" s="93" t="n">
+      <c r="E56" s="89" t="n">
         <v>11000</v>
       </c>
-      <c r="F56" s="93" t="n">
+      <c r="F56" s="89" t="n">
         <v>2200</v>
       </c>
-      <c r="G56" s="93" t="n">
+      <c r="G56" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="13" t="n"/>
-      <c r="B57" s="72" t="n"/>
-      <c r="C57" s="73" t="n"/>
-      <c r="D57" s="74" t="n"/>
-      <c r="E57" s="75" t="n"/>
-      <c r="F57" s="76" t="n"/>
-      <c r="G57" s="77" t="n"/>
+      <c r="B57" s="25" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="26" t="n"/>
+      <c r="E57" s="22" t="n"/>
+      <c r="F57" s="72" t="n"/>
+      <c r="G57" s="73" t="n"/>
       <c r="H57" s="13" t="n"/>
     </row>
     <row r="58" s="40">
       <c r="A58" s="65" t="n"/>
-      <c r="B58" s="78" t="inlineStr">
+      <c r="B58" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C58" s="79" t="n"/>
-      <c r="D58" s="94" t="n"/>
-      <c r="E58" s="94" t="n"/>
-      <c r="F58" s="81" t="inlineStr">
+      <c r="C58" s="75" t="n"/>
+      <c r="D58" s="92" t="n"/>
+      <c r="E58" s="92" t="n"/>
+      <c r="F58" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G58" s="82">
+      <c r="G58" s="78">
         <f>SUM(G19:G56)</f>
         <v/>
       </c>
@@ -12395,28 +12341,28 @@
     </row>
     <row r="59">
       <c r="A59" s="65" t="n"/>
-      <c r="B59" s="83" t="n"/>
-      <c r="C59" s="84" t="n"/>
-      <c r="D59" s="80" t="n"/>
-      <c r="E59" s="80" t="n"/>
-      <c r="F59" s="85" t="inlineStr">
+      <c r="B59" s="79" t="n"/>
+      <c r="C59" s="80" t="n"/>
+      <c r="D59" s="76" t="n"/>
+      <c r="E59" s="76" t="n"/>
+      <c r="F59" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G59" s="86" t="n">
+      <c r="G59" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="65" t="n"/>
     </row>
     <row r="60" s="40">
       <c r="A60" s="33" t="n"/>
-      <c r="B60" s="87" t="n"/>
-      <c r="C60" s="88" t="n"/>
-      <c r="D60" s="88" t="n"/>
-      <c r="E60" s="89" t="n"/>
-      <c r="F60" s="90" t="n"/>
-      <c r="G60" s="91">
+      <c r="B60" s="83" t="n"/>
+      <c r="C60" s="84" t="n"/>
+      <c r="D60" s="84" t="n"/>
+      <c r="E60" s="85" t="n"/>
+      <c r="F60" s="86" t="n"/>
+      <c r="G60" s="87">
         <f>G58</f>
         <v/>
       </c>
@@ -12758,30 +12704,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -12789,28 +12735,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -13115,47 +13061,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Remax Reyluck Series 2.1A Cabled Power Bank 10000mah Rpp-683</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>13000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>1560</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>11440</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -13163,28 +13109,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -13491,255 +13437,255 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Eyeshadow Palette 9 Colors</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>24000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>3600</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>20400</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Full Coverage Foundation 30 ml</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>19500</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>2925</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>16575</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Concealer 10 ml</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>13500</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>2025</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>11475</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Full coverage foundation 30 ml</t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>19500</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>2925</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>16575</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="40">
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Luxury Eyelashes</t>
         </is>
       </c>
-      <c r="E24" s="93" t="n">
+      <c r="E24" s="89" t="n">
         <v>30750</v>
       </c>
-      <c r="F24" s="93" t="n">
+      <c r="F24" s="89" t="n">
         <v>4612</v>
       </c>
-      <c r="G24" s="93" t="n">
+      <c r="G24" s="89" t="n">
         <v>26138</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="40">
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="90" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Eyelashes Glue 6ml</t>
         </is>
       </c>
-      <c r="E25" s="93" t="n">
+      <c r="E25" s="91" t="n">
         <v>7500</v>
       </c>
-      <c r="F25" s="93" t="n">
+      <c r="F25" s="91" t="n">
         <v>1125</v>
       </c>
-      <c r="G25" s="93" t="n">
+      <c r="G25" s="91" t="n">
         <v>6375</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" s="40">
-      <c r="B26" s="92" t="inlineStr">
+      <c r="B26" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Full Coverage Foundation 30 ml</t>
         </is>
       </c>
-      <c r="E26" s="93" t="n">
+      <c r="E26" s="89" t="n">
         <v>19500</v>
       </c>
-      <c r="F26" s="93" t="n">
+      <c r="F26" s="89" t="n">
         <v>2925</v>
       </c>
-      <c r="G26" s="93" t="n">
+      <c r="G26" s="89" t="n">
         <v>16575</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="40">
-      <c r="B27" s="92" t="inlineStr">
+      <c r="B27" s="90" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Setting Spray</t>
         </is>
       </c>
-      <c r="E27" s="93" t="n">
+      <c r="E27" s="91" t="n">
         <v>15000</v>
       </c>
-      <c r="F27" s="93" t="n">
+      <c r="F27" s="91" t="n">
         <v>2250</v>
       </c>
-      <c r="G27" s="93" t="n">
+      <c r="G27" s="91" t="n">
         <v>12750</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="40">
-      <c r="B28" s="92" t="inlineStr">
+      <c r="B28" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin More Curly Mascara 10ml</t>
         </is>
       </c>
-      <c r="E28" s="93" t="n">
+      <c r="E28" s="89" t="n">
         <v>15000</v>
       </c>
-      <c r="F28" s="93" t="n">
+      <c r="F28" s="89" t="n">
         <v>2250</v>
       </c>
-      <c r="G28" s="93" t="n">
+      <c r="G28" s="89" t="n">
         <v>12750</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="40">
-      <c r="B29" s="92" t="inlineStr">
+      <c r="B29" s="90" t="inlineStr">
         <is>
           <t>1 X Sazan Amin More Curly Mascara 10ml</t>
         </is>
       </c>
-      <c r="E29" s="93" t="n">
+      <c r="E29" s="91" t="n">
         <v>15000</v>
       </c>
-      <c r="F29" s="93" t="n">
+      <c r="F29" s="91" t="n">
         <v>2250</v>
       </c>
-      <c r="G29" s="93" t="n">
+      <c r="G29" s="91" t="n">
         <v>12750</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="40">
-      <c r="B30" s="92" t="inlineStr">
+      <c r="B30" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Concealer 10 ml</t>
         </is>
       </c>
-      <c r="E30" s="93" t="n">
+      <c r="E30" s="89" t="n">
         <v>13500</v>
       </c>
-      <c r="F30" s="93" t="n">
+      <c r="F30" s="89" t="n">
         <v>2025</v>
       </c>
-      <c r="G30" s="93" t="n">
+      <c r="G30" s="89" t="n">
         <v>11475</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="40">
-      <c r="B31" s="92" t="inlineStr">
+      <c r="B31" s="90" t="inlineStr">
         <is>
           <t>2 X Sazan Amin Eyelashes Glue 6ml</t>
         </is>
       </c>
-      <c r="E31" s="93" t="n">
+      <c r="E31" s="91" t="n">
         <v>15000</v>
       </c>
-      <c r="F31" s="93" t="n">
+      <c r="F31" s="91" t="n">
         <v>2250</v>
       </c>
-      <c r="G31" s="93" t="n">
+      <c r="G31" s="91" t="n">
         <v>12750</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" s="40">
-      <c r="B32" s="92" t="inlineStr">
+      <c r="B32" s="88" t="inlineStr">
         <is>
           <t>1 X Sazan Amin Full Coverage Foundation 30 ml</t>
         </is>
       </c>
-      <c r="E32" s="93" t="n">
+      <c r="E32" s="89" t="n">
         <v>19500</v>
       </c>
-      <c r="F32" s="93" t="n">
+      <c r="F32" s="89" t="n">
         <v>2925</v>
       </c>
-      <c r="G32" s="93" t="n">
+      <c r="G32" s="89" t="n">
         <v>16575</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="40">
-      <c r="B33" s="92" t="inlineStr">
+      <c r="B33" s="90" t="inlineStr">
         <is>
           <t>1 X Sazan Amin More Curly Mascara 10ml</t>
         </is>
       </c>
-      <c r="E33" s="93" t="n">
+      <c r="E33" s="91" t="n">
         <v>15000</v>
       </c>
-      <c r="F33" s="93" t="n">
+      <c r="F33" s="91" t="n">
         <v>2250</v>
       </c>
-      <c r="G33" s="93" t="n">
+      <c r="G33" s="91" t="n">
         <v>12750</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="13" t="n"/>
-      <c r="B34" s="72" t="n"/>
-      <c r="C34" s="73" t="n"/>
-      <c r="D34" s="74" t="n"/>
-      <c r="E34" s="75" t="n"/>
-      <c r="F34" s="76" t="n"/>
-      <c r="G34" s="77" t="n"/>
+      <c r="B34" s="25" t="n"/>
+      <c r="C34" s="21" t="n"/>
+      <c r="D34" s="26" t="n"/>
+      <c r="E34" s="22" t="n"/>
+      <c r="F34" s="72" t="n"/>
+      <c r="G34" s="73" t="n"/>
       <c r="H34" s="13" t="n"/>
     </row>
     <row r="35" s="40">
       <c r="A35" s="65" t="n"/>
-      <c r="B35" s="78" t="inlineStr">
+      <c r="B35" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C35" s="79" t="n"/>
-      <c r="D35" s="94" t="n"/>
-      <c r="E35" s="94" t="n"/>
-      <c r="F35" s="81" t="inlineStr">
+      <c r="C35" s="75" t="n"/>
+      <c r="D35" s="92" t="n"/>
+      <c r="E35" s="92" t="n"/>
+      <c r="F35" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="78">
         <f>SUM(G19:G33)</f>
         <v/>
       </c>
@@ -13747,28 +13693,28 @@
     </row>
     <row r="36">
       <c r="A36" s="65" t="n"/>
-      <c r="B36" s="83" t="n"/>
-      <c r="C36" s="84" t="n"/>
-      <c r="D36" s="80" t="n"/>
-      <c r="E36" s="80" t="n"/>
-      <c r="F36" s="85" t="inlineStr">
+      <c r="B36" s="79" t="n"/>
+      <c r="C36" s="80" t="n"/>
+      <c r="D36" s="76" t="n"/>
+      <c r="E36" s="76" t="n"/>
+      <c r="F36" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G36" s="86" t="n">
+      <c r="G36" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="65" t="n"/>
     </row>
     <row r="37" s="40">
       <c r="A37" s="33" t="n"/>
-      <c r="B37" s="87" t="n"/>
-      <c r="C37" s="88" t="n"/>
-      <c r="D37" s="88" t="n"/>
-      <c r="E37" s="89" t="n"/>
-      <c r="F37" s="90" t="n"/>
-      <c r="G37" s="91">
+      <c r="B37" s="83" t="n"/>
+      <c r="C37" s="84" t="n"/>
+      <c r="D37" s="84" t="n"/>
+      <c r="E37" s="85" t="n"/>
+      <c r="F37" s="86" t="n"/>
+      <c r="G37" s="87">
         <f>G35</f>
         <v/>
       </c>
@@ -14087,30 +14033,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -14118,28 +14064,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -14445,30 +14391,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -14476,28 +14422,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -14803,30 +14749,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -14834,28 +14780,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -15160,47 +15106,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X The Ordinary Multi-Peptide Lash And Brow Serum 5 ml</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>30000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>4500</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>25500</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -15208,28 +15154,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -15435,7 +15381,7 @@
       <c r="A12" s="11" t="n"/>
       <c r="B12" s="62" t="inlineStr">
         <is>
-          <t>Tecno</t>
+          <t>Tissot Co.</t>
         </is>
       </c>
       <c r="D12" s="64" t="n"/>
@@ -15517,50 +15463,50 @@
       </c>
       <c r="H18" s="13" t="n"/>
     </row>
-    <row r="19" ht="30" customHeight="1" s="40">
+    <row r="19" ht="15" customHeight="1" s="40">
       <c r="A19" s="13" t="n"/>
       <c r="B19" s="70" t="inlineStr">
         <is>
-          <t>1 X Tecno Spark 30 Memory 256GB 8GB RAM Bumblebee KL6</t>
+          <t>1 X Tissot Seastar GMT Watch For Men</t>
         </is>
       </c>
       <c r="E19" s="71" t="n">
-        <v>184500</v>
+        <v>631125</v>
       </c>
       <c r="F19" s="71" t="n">
-        <v>18450</v>
+        <v>126225</v>
       </c>
       <c r="G19" s="71" t="n">
-        <v>166050</v>
+        <v>504900</v>
       </c>
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -15568,28 +15514,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -15793,7 +15739,7 @@
       <c r="A12" s="11" t="n"/>
       <c r="B12" s="62" t="inlineStr">
         <is>
-          <t>Tissot Co.</t>
+          <t>Top Cars</t>
         </is>
       </c>
       <c r="D12" s="64" t="n"/>
@@ -15879,46 +15825,46 @@
       <c r="A19" s="13" t="n"/>
       <c r="B19" s="70" t="inlineStr">
         <is>
-          <t>1 X Tissot Seastar GMT Watch For Men</t>
+          <t xml:space="preserve">1 X Cadillac Escalade Black Mini Car </t>
         </is>
       </c>
       <c r="E19" s="71" t="n">
-        <v>631125</v>
+        <v>20000</v>
       </c>
       <c r="F19" s="71" t="n">
-        <v>126225</v>
+        <v>3000</v>
       </c>
       <c r="G19" s="71" t="n">
-        <v>504900</v>
+        <v>17000</v>
       </c>
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -15926,28 +15872,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -16011,364 +15957,6 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col width="6.109375" customWidth="1" style="40" min="1" max="1"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="40" min="2" max="2"/>
-    <col width="19.88671875" customWidth="1" style="40" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="40" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="40" min="5" max="5"/>
-    <col width="13.109375" customWidth="1" style="40" min="6" max="7"/>
-    <col width="6.109375" customWidth="1" style="40" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12" customHeight="1" s="40">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="48.6" customHeight="1" s="40">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="59" t="inlineStr">
-        <is>
-          <t>Zenbil</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" s="40">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="60" t="inlineStr">
-        <is>
-          <t>Italian Village 1</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="6" t="n"/>
-    </row>
-    <row r="4" ht="13.2" customHeight="1" s="40">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="61" t="inlineStr">
-        <is>
-          <t>Erbil, Kurdistan, Iraq</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="6" t="n"/>
-    </row>
-    <row r="5" ht="13.2" customHeight="1" s="40">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="62" t="inlineStr">
-        <is>
-          <t>0751 818 88889</t>
-        </is>
-      </c>
-      <c r="D5" s="62" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="13.2" customHeight="1" s="40">
-      <c r="A6" s="11" t="n"/>
-      <c r="E6" s="57" t="n"/>
-      <c r="F6" s="57" t="n"/>
-      <c r="G6" s="57" t="n"/>
-      <c r="H6" s="11" t="n"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" s="40">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="41.4" customHeight="1" s="40">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="63" t="inlineStr">
-        <is>
-          <t>Payout</t>
-        </is>
-      </c>
-      <c r="F8" s="66" t="n"/>
-      <c r="G8" s="66" t="n"/>
-      <c r="H8" s="13" t="n"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" s="40">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="67" t="n">
-        <v>45893</v>
-      </c>
-      <c r="D9" s="60" t="n"/>
-      <c r="E9" s="15" t="n"/>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="42" t="n"/>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="40">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="68" t="n"/>
-      <c r="D10" s="65" t="n"/>
-      <c r="F10" s="66" t="n"/>
-      <c r="H10" s="13" t="n"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" s="40">
-      <c r="A11" s="18" t="n"/>
-      <c r="B11" s="47" t="inlineStr">
-        <is>
-          <t>Payment for</t>
-        </is>
-      </c>
-      <c r="D11" s="47" t="n"/>
-      <c r="F11" s="48" t="inlineStr">
-        <is>
-          <t>Invoice #</t>
-        </is>
-      </c>
-      <c r="H11" s="18" t="n"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" s="40">
-      <c r="A12" s="11" t="n"/>
-      <c r="B12" s="62" t="inlineStr">
-        <is>
-          <t>Top Cars</t>
-        </is>
-      </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="F12" s="57" t="inlineStr">
-        <is>
-          <t>20250824-44</t>
-        </is>
-      </c>
-      <c r="H12" s="11" t="n"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" s="40">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="42" t="n"/>
-      <c r="D13" s="42" t="n"/>
-      <c r="F13" s="43" t="n"/>
-      <c r="H13" s="13" t="n"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" s="40">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="42" t="n"/>
-      <c r="D14" s="47" t="n"/>
-      <c r="F14" s="48" t="inlineStr">
-        <is>
-          <t>Due date</t>
-        </is>
-      </c>
-      <c r="H14" s="13" t="n"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" s="40">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="42" t="n"/>
-      <c r="D15" s="49" t="n"/>
-      <c r="F15" s="50" t="n">
-        <v>45893</v>
-      </c>
-      <c r="H15" s="13" t="n"/>
-    </row>
-    <row r="16" ht="13.2" customHeight="1" s="40">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="45" t="n"/>
-      <c r="C16" s="69" t="n"/>
-      <c r="D16" s="45" t="n"/>
-      <c r="E16" s="69" t="n"/>
-      <c r="F16" s="58" t="n"/>
-      <c r="G16" s="69" t="n"/>
-      <c r="H16" s="6" t="n"/>
-    </row>
-    <row r="17" ht="13.2" customHeight="1" s="40">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="60" t="n"/>
-      <c r="C17" s="60" t="n"/>
-      <c r="D17" s="60" t="n"/>
-      <c r="E17" s="19" t="n"/>
-      <c r="F17" s="15" t="n"/>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="13" t="n"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" s="40">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="39" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E18" s="20" t="inlineStr">
-        <is>
-          <t>Sold</t>
-        </is>
-      </c>
-      <c r="F18" s="20" t="inlineStr">
-        <is>
-          <t>Commission</t>
-        </is>
-      </c>
-      <c r="G18" s="20" t="inlineStr">
-        <is>
-          <t>Total price</t>
-        </is>
-      </c>
-      <c r="H18" s="13" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="40">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 X Cadillac Escalade Black Mini Car </t>
-        </is>
-      </c>
-      <c r="E19" s="71" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F19" s="71" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="71" t="n">
-        <v>17000</v>
-      </c>
-      <c r="H19" s="13" t="n"/>
-    </row>
-    <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
-      <c r="H20" s="13" t="n"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" s="40">
-      <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
-        <is>
-          <t>Signature:</t>
-        </is>
-      </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="G21" s="82">
-        <f>SUM(G19:G19)</f>
-        <v/>
-      </c>
-      <c r="H21" s="65" t="n"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1" s="40">
-      <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
-        <is>
-          <t>Adjustments</t>
-        </is>
-      </c>
-      <c r="G22" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="65" t="n"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" s="40">
-      <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
-        <f>G21</f>
-        <v/>
-      </c>
-      <c r="H23" s="35" t="inlineStr">
-        <is>
-          <t>IQD</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1" s="40">
-      <c r="A24" s="42" t="n"/>
-      <c r="B24" s="37" t="n"/>
-      <c r="C24" s="42" t="n"/>
-      <c r="D24" s="42" t="n"/>
-      <c r="E24" s="19" t="n"/>
-      <c r="F24" s="19" t="n"/>
-      <c r="G24" s="19" t="n"/>
-      <c r="H24" s="42" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" gridLines="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" pageOrder="overThenDown" cellComments="atEnd"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16515,7 +16103,7 @@
       <c r="D12" s="64" t="n"/>
       <c r="F12" s="57" t="inlineStr">
         <is>
-          <t>20250824-45</t>
+          <t>20250824-44</t>
         </is>
       </c>
       <c r="H12" s="11" t="n"/>
@@ -16610,63 +16198,63 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Certina Men's Watch Black Dial C001.639.22.207.02</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>945000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>141750</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>803250</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Certina Men's Watch Blue Dial C032.410.11.041.00</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>855000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>128250</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>726750</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="13" t="n"/>
-      <c r="B22" s="72" t="n"/>
-      <c r="C22" s="73" t="n"/>
-      <c r="D22" s="74" t="n"/>
-      <c r="E22" s="75" t="n"/>
-      <c r="F22" s="76" t="n"/>
-      <c r="G22" s="77" t="n"/>
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="21" t="n"/>
+      <c r="D22" s="26" t="n"/>
+      <c r="E22" s="22" t="n"/>
+      <c r="F22" s="72" t="n"/>
+      <c r="G22" s="73" t="n"/>
       <c r="H22" s="13" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="78" t="inlineStr">
+      <c r="B23" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C23" s="79" t="n"/>
-      <c r="D23" s="94" t="n"/>
-      <c r="E23" s="94" t="n"/>
-      <c r="F23" s="81" t="inlineStr">
+      <c r="C23" s="75" t="n"/>
+      <c r="D23" s="92" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="91">
         <f>SUM(G19:G21)</f>
         <v/>
       </c>
@@ -16674,28 +16262,28 @@
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="65" t="n"/>
-      <c r="B24" s="83" t="n"/>
-      <c r="C24" s="84" t="n"/>
-      <c r="D24" s="80" t="n"/>
-      <c r="E24" s="80" t="n"/>
-      <c r="F24" s="85" t="inlineStr">
+      <c r="B24" s="79" t="n"/>
+      <c r="C24" s="80" t="n"/>
+      <c r="D24" s="76" t="n"/>
+      <c r="E24" s="76" t="n"/>
+      <c r="F24" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G24" s="86" t="n">
+      <c r="G24" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="65" t="n"/>
     </row>
     <row r="25" s="40">
       <c r="A25" s="33" t="n"/>
-      <c r="B25" s="87" t="n"/>
-      <c r="C25" s="88" t="n"/>
-      <c r="D25" s="88" t="n"/>
-      <c r="E25" s="89" t="n"/>
-      <c r="F25" s="90" t="n"/>
-      <c r="G25" s="91">
+      <c r="B25" s="83" t="n"/>
+      <c r="C25" s="84" t="n"/>
+      <c r="D25" s="84" t="n"/>
+      <c r="E25" s="85" t="n"/>
+      <c r="F25" s="86" t="n"/>
+      <c r="G25" s="87">
         <f>G23</f>
         <v/>
       </c>
@@ -16755,7 +16343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16907,7 +16495,7 @@
       <c r="D12" s="64" t="n"/>
       <c r="F12" s="57" t="inlineStr">
         <is>
-          <t>20250824-46</t>
+          <t>20250824-45</t>
         </is>
       </c>
       <c r="H12" s="11" t="n"/>
@@ -17003,30 +16591,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -17034,28 +16622,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -17113,7 +16701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17265,7 +16853,7 @@
       <c r="D12" s="64" t="n"/>
       <c r="F12" s="57" t="inlineStr">
         <is>
-          <t>20250824-47</t>
+          <t>20250824-46</t>
         </is>
       </c>
       <c r="H12" s="11" t="n"/>
@@ -17360,47 +16948,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Apple AirPods 3rd Generation Copy </t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>10000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>1200</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -17408,28 +16996,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -17489,7 +17077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17641,7 +17229,7 @@
       <c r="D12" s="64" t="n"/>
       <c r="F12" s="57" t="inlineStr">
         <is>
-          <t>20250824-48</t>
+          <t>20250824-47</t>
         </is>
       </c>
       <c r="H12" s="11" t="n"/>
@@ -17736,127 +17324,127 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Zaragoza Coral And Shell Women's Body Mist 75ml </t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>3500</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>350</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>3150</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>1 X Zaragoza Mini Copper Men's Perfume 35ml</t>
         </is>
       </c>
-      <c r="E21" s="93" t="n">
+      <c r="E21" s="91" t="n">
         <v>6000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F21" s="91" t="n">
         <v>600</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G21" s="91" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="88" t="inlineStr">
         <is>
           <t>1 X Zaragoza Mini Dark Men's Perfume 35ml</t>
         </is>
       </c>
-      <c r="E22" s="93" t="n">
+      <c r="E22" s="89" t="n">
         <v>6000</v>
       </c>
-      <c r="F22" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>600</v>
       </c>
-      <c r="G22" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve">1 X Zaragoza Night Men's Body Spray 150ml </t>
         </is>
       </c>
-      <c r="E23" s="93" t="n">
+      <c r="E23" s="91" t="n">
         <v>6000</v>
       </c>
-      <c r="F23" s="93" t="n">
+      <c r="F23" s="91" t="n">
         <v>600</v>
       </c>
-      <c r="G23" s="93" t="n">
+      <c r="G23" s="91" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="40">
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="88" t="inlineStr">
         <is>
           <t>1 X Zaragoza Desert Men's Body Spray 150ml</t>
         </is>
       </c>
-      <c r="E24" s="93" t="n">
+      <c r="E24" s="89" t="n">
         <v>6000</v>
       </c>
-      <c r="F24" s="93" t="n">
+      <c r="F24" s="89" t="n">
         <v>600</v>
       </c>
-      <c r="G24" s="93" t="n">
+      <c r="G24" s="89" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="40">
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="90" t="inlineStr">
         <is>
           <t>2 X Zaragoza Dark Men's Perfume 100ml</t>
         </is>
       </c>
-      <c r="E25" s="93" t="n">
+      <c r="E25" s="91" t="n">
         <v>36000</v>
       </c>
-      <c r="F25" s="93" t="n">
+      <c r="F25" s="91" t="n">
         <v>3600</v>
       </c>
-      <c r="G25" s="93" t="n">
+      <c r="G25" s="91" t="n">
         <v>32400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="n"/>
-      <c r="B26" s="72" t="n"/>
-      <c r="C26" s="73" t="n"/>
-      <c r="D26" s="74" t="n"/>
-      <c r="E26" s="75" t="n"/>
-      <c r="F26" s="76" t="n"/>
-      <c r="G26" s="77" t="n"/>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="22" t="n"/>
+      <c r="F26" s="72" t="n"/>
+      <c r="G26" s="73" t="n"/>
       <c r="H26" s="13" t="n"/>
     </row>
     <row r="27" s="40">
       <c r="A27" s="65" t="n"/>
-      <c r="B27" s="78" t="inlineStr">
+      <c r="B27" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C27" s="79" t="n"/>
-      <c r="D27" s="94" t="n"/>
-      <c r="E27" s="94" t="n"/>
-      <c r="F27" s="81" t="inlineStr">
+      <c r="C27" s="75" t="n"/>
+      <c r="D27" s="92" t="n"/>
+      <c r="E27" s="92" t="n"/>
+      <c r="F27" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="78">
         <f>SUM(G19:G25)</f>
         <v/>
       </c>
@@ -17864,28 +17452,28 @@
     </row>
     <row r="28">
       <c r="A28" s="65" t="n"/>
-      <c r="B28" s="83" t="n"/>
-      <c r="C28" s="84" t="n"/>
-      <c r="D28" s="80" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="85" t="inlineStr">
+      <c r="B28" s="79" t="n"/>
+      <c r="C28" s="80" t="n"/>
+      <c r="D28" s="76" t="n"/>
+      <c r="E28" s="76" t="n"/>
+      <c r="F28" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G28" s="86" t="n">
+      <c r="G28" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="65" t="n"/>
     </row>
     <row r="29" s="40">
       <c r="A29" s="33" t="n"/>
-      <c r="B29" s="87" t="n"/>
-      <c r="C29" s="88" t="n"/>
-      <c r="D29" s="88" t="n"/>
-      <c r="E29" s="89" t="n"/>
-      <c r="F29" s="90" t="n"/>
-      <c r="G29" s="91">
+      <c r="B29" s="83" t="n"/>
+      <c r="C29" s="84" t="n"/>
+      <c r="D29" s="84" t="n"/>
+      <c r="E29" s="85" t="n"/>
+      <c r="F29" s="86" t="n"/>
+      <c r="G29" s="87">
         <f>G27</f>
         <v/>
       </c>
@@ -17948,7 +17536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18100,7 +17688,7 @@
       <c r="D12" s="64" t="n"/>
       <c r="F12" s="57" t="inlineStr">
         <is>
-          <t>20250824-49</t>
+          <t>20250824-48</t>
         </is>
       </c>
       <c r="H12" s="11" t="n"/>
@@ -18196,30 +17784,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -18227,28 +17815,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -18553,47 +18141,47 @@
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
         <is>
           <t>1 X Anker Prime Power Bank 20K mAh 200W Golden A13360B1</t>
         </is>
       </c>
-      <c r="E20" s="93" t="n">
+      <c r="E20" s="89" t="n">
         <v>173000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>25950</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>147050</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="72" t="n"/>
-      <c r="C21" s="73" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="75" t="n"/>
-      <c r="F21" s="76" t="n"/>
-      <c r="G21" s="77" t="n"/>
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="21" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="73" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="78" t="inlineStr">
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="81" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="78">
         <f>SUM(G19:G20)</f>
         <v/>
       </c>
@@ -18601,28 +18189,28 @@
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="65" t="n"/>
-      <c r="B23" s="83" t="n"/>
-      <c r="C23" s="84" t="n"/>
-      <c r="D23" s="80" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="85" t="inlineStr">
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="80" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G23" s="86" t="n">
+      <c r="G23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="65" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="C24" s="88" t="n"/>
-      <c r="D24" s="88" t="n"/>
-      <c r="E24" s="89" t="n"/>
-      <c r="F24" s="90" t="n"/>
-      <c r="G24" s="91">
+      <c r="B24" s="83" t="n"/>
+      <c r="C24" s="84" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="85" t="n"/>
+      <c r="F24" s="86" t="n"/>
+      <c r="G24" s="87">
         <f>G22</f>
         <v/>
       </c>
@@ -18930,30 +18518,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -18961,28 +18549,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -19046,7 +18634,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19272,157 +18860,141 @@
       <c r="A19" s="13" t="n"/>
       <c r="B19" s="70" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 X کەمتەرخەمی </t>
+          <t xml:space="preserve">1 X چۆن بە وریاییەوە گوێ لەخەڵکی بگرین </t>
         </is>
       </c>
       <c r="E19" s="71" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F19" s="71" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G19" s="71" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="40">
-      <c r="B20" s="92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 X چۆن بە وریاییەوە گوێ لەخەڵکی بگرین </t>
-        </is>
-      </c>
-      <c r="E20" s="93" t="n">
+      <c r="B20" s="88" t="inlineStr">
+        <is>
+          <t>1 X شەوه ڕۆشنەکان</t>
+        </is>
+      </c>
+      <c r="E20" s="89" t="n">
         <v>4000</v>
       </c>
-      <c r="F20" s="93" t="n">
+      <c r="F20" s="89" t="n">
         <v>400</v>
       </c>
-      <c r="G20" s="93" t="n">
+      <c r="G20" s="89" t="n">
         <v>3600</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="40">
-      <c r="B21" s="92" t="inlineStr">
-        <is>
-          <t>1 X شەوه ڕۆشنەکان</t>
-        </is>
-      </c>
-      <c r="E21" s="93" t="n">
+      <c r="B21" s="90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 X ڕاڤەی سێ بنچینەکە </t>
+        </is>
+      </c>
+      <c r="E21" s="91" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F21" s="91" t="n">
+        <v>600</v>
+      </c>
+      <c r="G21" s="91" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="40">
+      <c r="B22" s="88" t="inlineStr">
+        <is>
+          <t>1 X کەسایەتی تاکی عێراقی</t>
+        </is>
+      </c>
+      <c r="E22" s="89" t="n">
         <v>4000</v>
       </c>
-      <c r="F21" s="93" t="n">
+      <c r="F22" s="89" t="n">
         <v>400</v>
       </c>
-      <c r="G21" s="93" t="n">
+      <c r="G22" s="89" t="n">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="40">
-      <c r="B22" s="92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 X ڕاڤەی سێ بنچینەکە </t>
-        </is>
-      </c>
-      <c r="E22" s="93" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="93" t="n">
-        <v>600</v>
-      </c>
-      <c r="G22" s="93" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="40">
-      <c r="B23" s="92" t="inlineStr">
-        <is>
-          <t>1 X کەسایەتی تاکی عێراقی</t>
-        </is>
-      </c>
-      <c r="E23" s="93" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F23" s="93" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" s="93" t="n">
-        <v>3600</v>
-      </c>
+    <row r="23" ht="30" customHeight="1" s="40">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="26" t="n"/>
+      <c r="E23" s="22" t="n"/>
+      <c r="F23" s="72" t="n"/>
+      <c r="G23" s="73" t="n"/>
+      <c r="H23" s="13" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="40">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="72" t="n"/>
-      <c r="C24" s="73" t="n"/>
-      <c r="D24" s="74" t="n"/>
-      <c r="E24" s="75" t="n"/>
-      <c r="F24" s="76" t="n"/>
-      <c r="G24" s="77" t="n"/>
-      <c r="H24" s="13" t="n"/>
-    </row>
-    <row r="25" s="40">
+      <c r="A24" s="65" t="n"/>
+      <c r="B24" s="74" t="inlineStr">
+        <is>
+          <t>Signature:</t>
+        </is>
+      </c>
+      <c r="C24" s="75" t="n"/>
+      <c r="D24" s="92" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="77" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="G24" s="78">
+        <f>SUM(G19:G22)</f>
+        <v/>
+      </c>
+      <c r="H24" s="65" t="n"/>
+    </row>
+    <row r="25">
       <c r="A25" s="65" t="n"/>
-      <c r="B25" s="78" t="inlineStr">
-        <is>
-          <t>Signature:</t>
-        </is>
-      </c>
-      <c r="C25" s="79" t="n"/>
-      <c r="D25" s="94" t="n"/>
-      <c r="E25" s="94" t="n"/>
+      <c r="B25" s="79" t="n"/>
+      <c r="C25" s="80" t="n"/>
+      <c r="D25" s="76" t="n"/>
+      <c r="E25" s="76" t="n"/>
       <c r="F25" s="81" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="G25" s="82">
-        <f>SUM(G19:G23)</f>
-        <v/>
+          <t>Adjustments</t>
+        </is>
+      </c>
+      <c r="G25" s="82" t="n">
+        <v>0</v>
       </c>
       <c r="H25" s="65" t="n"/>
     </row>
-    <row r="26">
-      <c r="A26" s="65" t="n"/>
+    <row r="26" s="40">
+      <c r="A26" s="33" t="n"/>
       <c r="B26" s="83" t="n"/>
       <c r="C26" s="84" t="n"/>
-      <c r="D26" s="80" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="85" t="inlineStr">
-        <is>
-          <t>Adjustments</t>
-        </is>
-      </c>
-      <c r="G26" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="65" t="n"/>
-    </row>
-    <row r="27" s="40">
-      <c r="A27" s="33" t="n"/>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="88" t="n"/>
-      <c r="D27" s="88" t="n"/>
-      <c r="E27" s="89" t="n"/>
-      <c r="F27" s="90" t="n"/>
-      <c r="G27" s="91">
-        <f>G25</f>
+      <c r="D26" s="84" t="n"/>
+      <c r="E26" s="85" t="n"/>
+      <c r="F26" s="86" t="n"/>
+      <c r="G26" s="87">
+        <f>G24</f>
         <v/>
       </c>
-      <c r="H27" s="35" t="inlineStr">
+      <c r="H26" s="35" t="inlineStr">
         <is>
           <t>IQD</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="42" t="n"/>
-      <c r="B28" s="37" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
-      <c r="E28" s="19" t="n"/>
-      <c r="F28" s="19" t="n"/>
-      <c r="G28" s="19" t="n"/>
-      <c r="H28" s="42" t="n"/>
+    <row r="27">
+      <c r="A27" s="42" t="n"/>
+      <c r="B27" s="37" t="n"/>
+      <c r="C27" s="42" t="n"/>
+      <c r="D27" s="42" t="n"/>
+      <c r="E27" s="19" t="n"/>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="19" t="n"/>
+      <c r="H27" s="42" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -19431,7 +19003,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B11:C11"/>
@@ -19444,6 +19015,7 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B9:C9"/>
@@ -19713,30 +19285,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -19744,28 +19316,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
@@ -20071,30 +19643,30 @@
     </row>
     <row r="20" hidden="1" ht="19.5" customHeight="1" s="40">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="C20" s="73" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="75" t="n"/>
-      <c r="F20" s="76" t="n"/>
-      <c r="G20" s="77" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="73" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="40">
       <c r="A21" s="65" t="n"/>
-      <c r="B21" s="78" t="inlineStr">
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Signature:</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="80" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="81" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="77" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="78">
         <f>SUM(G19:G19)</f>
         <v/>
       </c>
@@ -20102,28 +19674,28 @@
     </row>
     <row r="22" ht="19.5" customHeight="1" s="40">
       <c r="A22" s="65" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="80" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="85" t="inlineStr">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="80" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="81" t="inlineStr">
         <is>
           <t>Adjustments</t>
         </is>
       </c>
-      <c r="G22" s="86" t="n">
+      <c r="G22" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="65" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1" s="40">
       <c r="A23" s="33" t="n"/>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="n"/>
-      <c r="E23" s="89" t="n"/>
-      <c r="F23" s="90" t="n"/>
-      <c r="G23" s="91">
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="84" t="n"/>
+      <c r="D23" s="84" t="n"/>
+      <c r="E23" s="85" t="n"/>
+      <c r="F23" s="86" t="n"/>
+      <c r="G23" s="87">
         <f>G21</f>
         <v/>
       </c>
